--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzhch0-my.sharepoint.com/personal/raphael_haemmerli_uzhch0_onmicrosoft_com/Documents/Studium/Studium-20-Herbst/verDBS/DDBS/DDBS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="114_{66995357-D7D3-4E96-AF7E-497E0947B0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DB29B8C-7275-478B-8ED7-F3C6F7A7AE8B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="114_{66995357-D7D3-4E96-AF7E-497E0947B0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08C91E03-7992-453E-BDAF-E9E0454EE277}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -5851,10 +5851,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$96</c:f>
+              <c:f>(Sheet1!$F$2:$F$96,Sheet1!$E:$E)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="1048671"/>
                 <c:pt idx="0">
                   <c:v>7.6645612716674805E-2</c:v>
                 </c:pt>
@@ -6139,6 +6139,294 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>17.10456824302673</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.4711103439331048E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.8992385864257813E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.7910442352294922E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.7003707885742188E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.108006477355957</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.16601300239562991</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.22000312805175781</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.2139437198638916</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.25545001029968262</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.3450171947479248</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.34402322769165039</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.449005126953125</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.53906702995300293</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.62201046943664551</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.75199055671691906</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.5500028133392334</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.89192295074462891</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.069016218185425</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.238009929656982</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2950642108917241</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.056011438369751</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.392614364624023</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4820237159728999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1340160369873049</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2509782314300539</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.8719942569732659</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.1699931621551518</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.3999736309051509</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4859862327575679</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.402992725372314</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.8090600967407231</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.7917847633361821</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.5659997463226321</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2200644016265869</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.3099920749664311</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.1439824104309082</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.4415080547332759</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.3480839729309082</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.1609630584716801</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.929505586624146</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.0880031585693359</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.1359813213348389</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.4239637851715088</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.2069787979125981</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.3479869365692139</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.8849790096282959</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.5951440334320068</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.6289916038513184</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0409801006317139</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.5178701877593994</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.0153937339782724</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.5100862979888916</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.6263015270233154</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.7057538032531738</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.2479662895202637</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.7693741321563721</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.9494202136993408</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.364311695098877</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.9300191402435303</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.7812213897705078</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.281024694442749</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.5960121154785174</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.939486026763916</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10.030647754669189</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>11.13220477104187</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10.97844767570496</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.9520955085754403</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.4162681102752668</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.2956504821777326</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.4066393375396729</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.4698069095611555</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.0749893188476563</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.611065149307249</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8.8810803890228289</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>13.74103093147278</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.5389115810394269</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>13.911905765533451</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.8139824867248535</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.8451375961303729</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10.60572457313538</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10.31726741790772</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>11.344429016113279</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11.018014907836911</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11.89209961891174</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>11.71021437644958</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>11.884733915328979</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11.806942462921141</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>12.09339118003845</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>13.197924375534059</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>13.287946701049799</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13.769888877868651</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>13.08012795448303</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13.66624069213867</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>13.4852020740509</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>13.96455359458923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11081,8 +11369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
